--- a/uas4gis/ref/buildings.xlsx
+++ b/uas4gis/ref/buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaloemphol/Projects/aj/uas4gis/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99002AE-7CA3-CD4C-A1BB-9199F7EC3015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C7295-6F5C-A641-BBE9-6CE90AAFDF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="1340" windowWidth="27620" windowHeight="16820" xr2:uid="{74D4384D-D34A-2546-9FC9-89180397C1CD}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>building</t>
   </si>
   <si>
-    <t>BLD_GRP</t>
-  </si>
-  <si>
     <t>ประตูทางเข้า รร.นนก.</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>14.64711,101.19457</t>
+  </si>
+  <si>
+    <t>buildingGroup</t>
   </si>
 </sst>
 </file>
@@ -515,24 +515,25 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -543,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -557,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -571,13 +572,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -585,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,13 +614,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,13 +642,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,13 +656,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -683,13 +684,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,13 +698,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -711,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
